--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F2-F2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F2-F2r.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4824693333333334</v>
+        <v>0.3845463333333334</v>
       </c>
       <c r="H2">
-        <v>1.447408</v>
+        <v>1.153639</v>
       </c>
       <c r="I2">
-        <v>0.2099856823459656</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="J2">
-        <v>0.2099856823459655</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>5.914580333333333</v>
+        <v>3.841766333333334</v>
       </c>
       <c r="N2">
-        <v>17.743741</v>
+        <v>11.525299</v>
       </c>
       <c r="O2">
-        <v>0.07170723223214717</v>
+        <v>0.04788297632726236</v>
       </c>
       <c r="P2">
-        <v>0.07170723223214717</v>
+        <v>0.04788297632726236</v>
       </c>
       <c r="Q2">
-        <v>2.853603630369778</v>
+        <v>1.477337157006778</v>
       </c>
       <c r="R2">
-        <v>25.682432673328</v>
+        <v>13.296034413061</v>
       </c>
       <c r="S2">
-        <v>0.01505749208940804</v>
+        <v>0.009504053514681069</v>
       </c>
       <c r="T2">
-        <v>0.01505749208940804</v>
+        <v>0.009504053514681067</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4824693333333334</v>
+        <v>0.3845463333333334</v>
       </c>
       <c r="H3">
-        <v>1.447408</v>
+        <v>1.153639</v>
       </c>
       <c r="I3">
-        <v>0.2099856823459656</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="J3">
-        <v>0.2099856823459655</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>134.822727</v>
       </c>
       <c r="O3">
-        <v>0.5448549206821932</v>
+        <v>0.5601341401483774</v>
       </c>
       <c r="P3">
-        <v>0.5448549206821932</v>
+        <v>0.5601341401483775</v>
       </c>
       <c r="Q3">
-        <v>21.682610404624</v>
+        <v>17.281861772617</v>
       </c>
       <c r="R3">
-        <v>195.143493641616</v>
+        <v>155.536755953553</v>
       </c>
       <c r="S3">
-        <v>0.1144117322990073</v>
+        <v>0.1111782360182791</v>
       </c>
       <c r="T3">
-        <v>0.1144117322990073</v>
+        <v>0.1111782360182791</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4824693333333334</v>
+        <v>0.3845463333333334</v>
       </c>
       <c r="H4">
-        <v>1.447408</v>
+        <v>1.153639</v>
       </c>
       <c r="I4">
-        <v>0.2099856823459656</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="J4">
-        <v>0.2099856823459655</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.626851</v>
+        <v>31.44972933333333</v>
       </c>
       <c r="N4">
-        <v>94.88055300000001</v>
+        <v>94.349188</v>
       </c>
       <c r="O4">
-        <v>0.3834378470856596</v>
+        <v>0.3919828835243602</v>
       </c>
       <c r="P4">
-        <v>0.3834378470856596</v>
+        <v>0.3919828835243602</v>
       </c>
       <c r="Q4">
-        <v>15.25898571740267</v>
+        <v>12.09387809945911</v>
       </c>
       <c r="R4">
-        <v>137.330871456624</v>
+        <v>108.844902895132</v>
       </c>
       <c r="S4">
-        <v>0.08051645795755023</v>
+        <v>0.07780273048176058</v>
       </c>
       <c r="T4">
-        <v>0.08051645795755022</v>
+        <v>0.07780273048176058</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>3.332484</v>
       </c>
       <c r="I5">
-        <v>0.4834669468781523</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="J5">
-        <v>0.4834669468781522</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>5.914580333333333</v>
+        <v>3.841766333333334</v>
       </c>
       <c r="N5">
-        <v>17.743741</v>
+        <v>11.525299</v>
       </c>
       <c r="O5">
-        <v>0.07170723223214717</v>
+        <v>0.04788297632726236</v>
       </c>
       <c r="P5">
-        <v>0.07170723223214717</v>
+        <v>0.04788297632726236</v>
       </c>
       <c r="Q5">
-        <v>6.570081442516</v>
+        <v>4.267541612524</v>
       </c>
       <c r="R5">
-        <v>59.130732982644</v>
+        <v>38.407874512716</v>
       </c>
       <c r="S5">
-        <v>0.03466807663635883</v>
+        <v>0.02745408769365323</v>
       </c>
       <c r="T5">
-        <v>0.03466807663635882</v>
+        <v>0.02745408769365323</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.332484</v>
       </c>
       <c r="I6">
-        <v>0.4834669468781523</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="J6">
-        <v>0.4834669468781522</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>134.822727</v>
       </c>
       <c r="O6">
-        <v>0.5448549206821932</v>
+        <v>0.5601341401483774</v>
       </c>
       <c r="P6">
-        <v>0.5448549206821932</v>
+        <v>0.5601341401483775</v>
       </c>
       <c r="Q6">
         <v>49.921620062652</v>
       </c>
       <c r="R6">
-        <v>449.2945805638681</v>
+        <v>449.294580563868</v>
       </c>
       <c r="S6">
-        <v>0.2634193449937578</v>
+        <v>0.3211573921123841</v>
       </c>
       <c r="T6">
-        <v>0.2634193449937577</v>
+        <v>0.3211573921123841</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.332484</v>
       </c>
       <c r="I7">
-        <v>0.4834669468781523</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="J7">
-        <v>0.4834669468781522</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.626851</v>
+        <v>31.44972933333333</v>
       </c>
       <c r="N7">
-        <v>94.88055300000001</v>
+        <v>94.349188</v>
       </c>
       <c r="O7">
-        <v>0.3834378470856596</v>
+        <v>0.3919828835243602</v>
       </c>
       <c r="P7">
-        <v>0.3834378470856596</v>
+        <v>0.3919828835243602</v>
       </c>
       <c r="Q7">
-        <v>35.131991642628</v>
+        <v>34.935239935888</v>
       </c>
       <c r="R7">
-        <v>316.187924783652</v>
+        <v>314.417159422992</v>
       </c>
       <c r="S7">
-        <v>0.1853795252480357</v>
+        <v>0.2247465233810398</v>
       </c>
       <c r="T7">
-        <v>0.1853795252480356</v>
+        <v>0.2247465233810398</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7043323333333333</v>
+        <v>0.442033</v>
       </c>
       <c r="H8">
-        <v>2.112997</v>
+        <v>1.326099</v>
       </c>
       <c r="I8">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="J8">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>5.914580333333333</v>
+        <v>3.841766333333334</v>
       </c>
       <c r="N8">
-        <v>17.743741</v>
+        <v>11.525299</v>
       </c>
       <c r="O8">
-        <v>0.07170723223214717</v>
+        <v>0.04788297632726236</v>
       </c>
       <c r="P8">
-        <v>0.07170723223214717</v>
+        <v>0.04788297632726236</v>
       </c>
       <c r="Q8">
-        <v>4.165830166864112</v>
+        <v>1.698187497622333</v>
       </c>
       <c r="R8">
-        <v>37.492471501777</v>
+        <v>15.283687478601</v>
       </c>
       <c r="S8">
-        <v>0.02198166350638031</v>
+        <v>0.01092483511892806</v>
       </c>
       <c r="T8">
-        <v>0.02198166350638031</v>
+        <v>0.01092483511892806</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7043323333333333</v>
+        <v>0.442033</v>
       </c>
       <c r="H9">
-        <v>2.112997</v>
+        <v>1.326099</v>
       </c>
       <c r="I9">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="J9">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>134.822727</v>
       </c>
       <c r="O9">
-        <v>0.5448549206821932</v>
+        <v>0.5601341401483774</v>
       </c>
       <c r="P9">
-        <v>0.5448549206821932</v>
+        <v>0.5601341401483775</v>
       </c>
       <c r="Q9">
-        <v>31.653335298091</v>
+        <v>19.865364827997</v>
       </c>
       <c r="R9">
-        <v>284.880017682819</v>
+        <v>178.788283451973</v>
       </c>
       <c r="S9">
-        <v>0.1670238433894282</v>
+        <v>0.1277985120177142</v>
       </c>
       <c r="T9">
-        <v>0.1670238433894282</v>
+        <v>0.1277985120177142</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7043323333333333</v>
+        <v>0.442033</v>
       </c>
       <c r="H10">
-        <v>2.112997</v>
+        <v>1.326099</v>
       </c>
       <c r="I10">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="J10">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.626851</v>
+        <v>31.44972933333333</v>
       </c>
       <c r="N10">
-        <v>94.88055300000001</v>
+        <v>94.349188</v>
       </c>
       <c r="O10">
-        <v>0.3834378470856596</v>
+        <v>0.3919828835243602</v>
       </c>
       <c r="P10">
-        <v>0.3834378470856596</v>
+        <v>0.3919828835243602</v>
       </c>
       <c r="Q10">
-        <v>22.27581376081567</v>
+        <v>13.90181820640133</v>
       </c>
       <c r="R10">
-        <v>200.482323847341</v>
+        <v>125.116363857612</v>
       </c>
       <c r="S10">
-        <v>0.1175418638800737</v>
+        <v>0.08943362966155981</v>
       </c>
       <c r="T10">
-        <v>0.1175418638800737</v>
+        <v>0.08943362966155981</v>
       </c>
     </row>
   </sheetData>
